--- a/realme/March/All Details/27.03.2021/realme Bank Statement March-2021.xlsx
+++ b/realme/March/All Details/27.03.2021/realme Bank Statement March-2021.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" r:id="rId1"/>
     <sheet name="Expence" sheetId="15" r:id="rId2"/>
     <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -238,9 +237,6 @@
     <t>realme  Balance(+)</t>
   </si>
   <si>
-    <t>relme Adjust: Due (+)</t>
-  </si>
-  <si>
     <t>Mugdho Corporation-2</t>
   </si>
   <si>
@@ -248,12 +244,6 @@
   </si>
   <si>
     <t>Brac Bank Close</t>
-  </si>
-  <si>
-    <t>Date: 01.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
   </si>
   <si>
     <t>01.03.2021</t>
@@ -346,7 +336,13 @@
     <t>City Bank</t>
   </si>
   <si>
-    <t>Date: 25.03.2021</t>
+    <t>27.03.2021</t>
+  </si>
+  <si>
+    <t>28.03.2021</t>
+  </si>
+  <si>
+    <t>Date: 28.03.2021</t>
   </si>
 </sst>
 </file>
@@ -2347,12 +2343,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2363,45 +2398,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2570,7 +2566,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2578,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2605,14 +2601,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2700,7 +2696,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2735,14 +2731,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3047,7 +3043,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3078,7 +3074,7 @@
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="19"/>
       <c r="B3" s="247" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="247"/>
       <c r="D3" s="247"/>
@@ -3144,7 +3140,7 @@
     <row r="8" spans="1:8">
       <c r="A8" s="19"/>
       <c r="B8" s="24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
@@ -3163,7 +3159,7 @@
     <row r="9" spans="1:8">
       <c r="A9" s="19"/>
       <c r="B9" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" s="23">
         <v>68000</v>
@@ -3182,7 +3178,7 @@
     <row r="10" spans="1:8">
       <c r="A10" s="19"/>
       <c r="B10" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="26">
         <v>87800</v>
@@ -3201,7 +3197,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="19"/>
       <c r="B11" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" s="23">
         <v>180000</v>
@@ -3220,7 +3216,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="19"/>
       <c r="B12" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C12" s="23">
         <v>0</v>
@@ -3239,7 +3235,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="19"/>
       <c r="B13" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="23">
         <v>900000</v>
@@ -3258,7 +3254,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="19"/>
       <c r="B14" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C14" s="23">
         <v>0</v>
@@ -3277,7 +3273,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="19"/>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="23">
         <v>544000</v>
@@ -3296,7 +3292,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="19"/>
       <c r="B16" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C16" s="23">
         <v>0</v>
@@ -3315,7 +3311,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="19"/>
       <c r="B17" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="23">
         <v>501000</v>
@@ -3334,7 +3330,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="19"/>
       <c r="B18" s="24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="244">
         <v>100000</v>
@@ -3347,17 +3343,17 @@
         <v>1266281</v>
       </c>
       <c r="F18" s="245" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
       <c r="A19" s="19"/>
       <c r="B19" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="23">
         <v>0</v>
@@ -3376,7 +3372,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="19"/>
       <c r="B20" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C20" s="23">
         <v>380000</v>
@@ -3395,7 +3391,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="19"/>
       <c r="B21" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C21" s="244">
         <v>200000</v>
@@ -3408,17 +3404,17 @@
         <v>1846281</v>
       </c>
       <c r="F21" s="245" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="19"/>
       <c r="B22" s="24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="23">
         <v>0</v>
@@ -3437,7 +3433,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="19"/>
       <c r="B23" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="23">
         <v>0</v>
@@ -3456,7 +3452,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="19"/>
       <c r="B24" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="23">
         <v>0</v>
@@ -3475,7 +3471,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="19"/>
       <c r="B25" s="24" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="23">
         <v>0</v>
@@ -3494,7 +3490,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="19"/>
       <c r="B26" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="23">
         <v>850000</v>
@@ -3513,7 +3509,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="19"/>
       <c r="B27" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="23">
         <v>275000</v>
@@ -3532,7 +3528,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="19"/>
       <c r="B28" s="24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="23">
         <v>100000</v>
@@ -3551,7 +3547,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="19"/>
       <c r="B29" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C29" s="23">
         <v>500000</v>
@@ -3570,7 +3566,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="19"/>
       <c r="B30" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="244">
         <v>50000</v>
@@ -3583,18 +3579,24 @@
         <v>2267541</v>
       </c>
       <c r="F30" s="245" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="19"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="B31" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="23">
+        <v>0</v>
+      </c>
+      <c r="D31" s="23">
+        <v>0</v>
+      </c>
       <c r="E31" s="25">
         <f t="shared" si="0"/>
         <v>2267541</v>
@@ -3605,9 +3607,15 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="19"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="B32" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0</v>
+      </c>
+      <c r="D32" s="23">
+        <v>0</v>
+      </c>
       <c r="E32" s="25">
         <f t="shared" si="0"/>
         <v>2267541</v>
@@ -4241,11 +4249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="10" ySplit="13" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4257,73 +4265,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="254"/>
-      <c r="K1" s="254"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="254"/>
-      <c r="N1" s="254"/>
-      <c r="O1" s="254"/>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="254"/>
-      <c r="S1" s="254"/>
+      <c r="B1" s="248"/>
+      <c r="C1" s="248"/>
+      <c r="D1" s="248"/>
+      <c r="E1" s="248"/>
+      <c r="F1" s="248"/>
+      <c r="G1" s="248"/>
+      <c r="H1" s="248"/>
+      <c r="I1" s="248"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
+      <c r="O1" s="248"/>
+      <c r="P1" s="248"/>
+      <c r="Q1" s="248"/>
+      <c r="R1" s="248"/>
+      <c r="S1" s="248"/>
     </row>
     <row r="2" spans="1:26" s="148" customFormat="1" ht="18">
-      <c r="A2" s="255" t="s">
+      <c r="A2" s="249" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="255"/>
-      <c r="K2" s="255"/>
-      <c r="L2" s="255"/>
-      <c r="M2" s="255"/>
-      <c r="N2" s="255"/>
-      <c r="O2" s="255"/>
-      <c r="P2" s="255"/>
-      <c r="Q2" s="255"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="255"/>
+      <c r="B2" s="249"/>
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="249"/>
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="249"/>
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
     </row>
     <row r="3" spans="1:26" s="149" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="256" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="257"/>
-      <c r="C3" s="257"/>
-      <c r="D3" s="257"/>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
-      <c r="J3" s="257"/>
-      <c r="K3" s="257"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="257"/>
-      <c r="N3" s="257"/>
-      <c r="O3" s="257"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="257"/>
-      <c r="S3" s="258"/>
+      <c r="A3" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="251"/>
+      <c r="O3" s="251"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="252"/>
       <c r="U3" s="63"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
@@ -4332,58 +4340,58 @@
       <c r="Z3" s="13"/>
     </row>
     <row r="4" spans="1:26" s="151" customFormat="1">
-      <c r="A4" s="259" t="s">
+      <c r="A4" s="253" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="248" t="s">
+      <c r="C4" s="257" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="248" t="s">
+      <c r="D4" s="257" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="248" t="s">
+      <c r="E4" s="257" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="248" t="s">
+      <c r="G4" s="257" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="257" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="248" t="s">
+      <c r="I4" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="248" t="s">
+      <c r="J4" s="257" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="257" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="248" t="s">
+      <c r="L4" s="257" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="248" t="s">
+      <c r="M4" s="257" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="248" t="s">
+      <c r="N4" s="257" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="250" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="252" t="s">
+      <c r="O4" s="263" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="265" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="265" t="s">
+      <c r="Q4" s="261" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="263" t="s">
+      <c r="R4" s="259" t="s">
         <v>48</v>
       </c>
       <c r="S4" s="150" t="s">
@@ -4396,24 +4404,24 @@
       <c r="Y4" s="153"/>
     </row>
     <row r="5" spans="1:26" s="151" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="260"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
-      <c r="E5" s="249"/>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="249"/>
-      <c r="O5" s="251"/>
-      <c r="P5" s="253"/>
-      <c r="Q5" s="266"/>
-      <c r="R5" s="264"/>
+      <c r="A5" s="254"/>
+      <c r="B5" s="256"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="264"/>
+      <c r="P5" s="266"/>
+      <c r="Q5" s="262"/>
+      <c r="R5" s="260"/>
       <c r="S5" s="155" t="s">
         <v>49</v>
       </c>
@@ -4426,7 +4434,7 @@
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1">
       <c r="A6" s="159" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" s="160">
         <v>500</v>
@@ -4464,7 +4472,7 @@
     </row>
     <row r="7" spans="1:26" s="10" customFormat="1">
       <c r="A7" s="159" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" s="160"/>
       <c r="C7" s="160"/>
@@ -4502,7 +4510,7 @@
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1">
       <c r="A8" s="159" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="167"/>
       <c r="C8" s="160"/>
@@ -4540,7 +4548,7 @@
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1">
       <c r="A9" s="159" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="167">
         <v>500</v>
@@ -4578,7 +4586,7 @@
     </row>
     <row r="10" spans="1:26" s="10" customFormat="1">
       <c r="A10" s="159" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" s="167"/>
       <c r="C10" s="160"/>
@@ -4614,7 +4622,7 @@
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1">
       <c r="A11" s="159" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="167"/>
       <c r="C11" s="160">
@@ -4654,7 +4662,7 @@
     </row>
     <row r="12" spans="1:26" s="10" customFormat="1">
       <c r="A12" s="159" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="167">
         <v>500</v>
@@ -4694,7 +4702,7 @@
     </row>
     <row r="13" spans="1:26" s="10" customFormat="1">
       <c r="A13" s="159" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" s="167"/>
       <c r="C13" s="160"/>
@@ -4730,7 +4738,7 @@
     </row>
     <row r="14" spans="1:26" s="10" customFormat="1">
       <c r="A14" s="159" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" s="167"/>
       <c r="C14" s="160"/>
@@ -4768,7 +4776,7 @@
     </row>
     <row r="15" spans="1:26" s="10" customFormat="1">
       <c r="A15" s="159" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" s="167">
         <v>500</v>
@@ -4806,7 +4814,7 @@
     </row>
     <row r="16" spans="1:26" s="10" customFormat="1">
       <c r="A16" s="159" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" s="167"/>
       <c r="C16" s="160"/>
@@ -4844,7 +4852,7 @@
     </row>
     <row r="17" spans="1:25" s="10" customFormat="1">
       <c r="A17" s="159" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" s="167"/>
       <c r="C17" s="160"/>
@@ -4882,7 +4890,7 @@
     </row>
     <row r="18" spans="1:25" s="10" customFormat="1">
       <c r="A18" s="159" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" s="167">
         <v>500</v>
@@ -4922,7 +4930,7 @@
     </row>
     <row r="19" spans="1:25" s="10" customFormat="1">
       <c r="A19" s="159" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" s="167"/>
       <c r="C19" s="160"/>
@@ -4958,7 +4966,7 @@
     </row>
     <row r="20" spans="1:25" s="10" customFormat="1">
       <c r="A20" s="159" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" s="167"/>
       <c r="C20" s="160"/>
@@ -4992,7 +5000,7 @@
     </row>
     <row r="21" spans="1:25" s="10" customFormat="1">
       <c r="A21" s="159" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B21" s="167">
         <v>500</v>
@@ -5026,7 +5034,7 @@
     </row>
     <row r="22" spans="1:25" s="10" customFormat="1">
       <c r="A22" s="159" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B22" s="167"/>
       <c r="C22" s="160"/>
@@ -5060,7 +5068,7 @@
     </row>
     <row r="23" spans="1:25" s="175" customFormat="1">
       <c r="A23" s="159" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B23" s="167"/>
       <c r="C23" s="160"/>
@@ -5094,7 +5102,7 @@
     </row>
     <row r="24" spans="1:25" s="10" customFormat="1">
       <c r="A24" s="159" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B24" s="167">
         <v>500</v>
@@ -5133,7 +5141,7 @@
     </row>
     <row r="25" spans="1:25" s="175" customFormat="1">
       <c r="A25" s="159" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="167"/>
       <c r="C25" s="160"/>
@@ -5165,7 +5173,7 @@
     </row>
     <row r="26" spans="1:25" s="10" customFormat="1">
       <c r="A26" s="159" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" s="167"/>
       <c r="C26" s="160"/>
@@ -5199,7 +5207,7 @@
     </row>
     <row r="27" spans="1:25" s="10" customFormat="1">
       <c r="A27" s="159" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B27" s="167">
         <v>500</v>
@@ -5234,17 +5242,25 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:25" s="10" customFormat="1">
-      <c r="A28" s="159"/>
+      <c r="A28" s="159" t="s">
+        <v>91</v>
+      </c>
       <c r="B28" s="167"/>
       <c r="C28" s="160"/>
       <c r="D28" s="168"/>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
+      <c r="G28" s="168">
+        <v>70</v>
+      </c>
       <c r="H28" s="168"/>
       <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
+      <c r="J28" s="168">
+        <v>120</v>
+      </c>
+      <c r="K28" s="168">
+        <v>160</v>
+      </c>
       <c r="L28" s="168"/>
       <c r="M28" s="168"/>
       <c r="N28" s="201"/>
@@ -5254,7 +5270,7 @@
       <c r="R28" s="170"/>
       <c r="S28" s="164">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="T28" s="165"/>
       <c r="U28" s="4"/>
@@ -5262,7 +5278,9 @@
       <c r="W28" s="177"/>
     </row>
     <row r="29" spans="1:25" s="10" customFormat="1">
-      <c r="A29" s="159"/>
+      <c r="A29" s="159" t="s">
+        <v>92</v>
+      </c>
       <c r="B29" s="167"/>
       <c r="C29" s="160"/>
       <c r="D29" s="168"/>
@@ -5271,8 +5289,12 @@
       <c r="G29" s="168"/>
       <c r="H29" s="168"/>
       <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
+      <c r="J29" s="168">
+        <v>40</v>
+      </c>
+      <c r="K29" s="168">
+        <v>80</v>
+      </c>
       <c r="L29" s="168"/>
       <c r="M29" s="168"/>
       <c r="N29" s="201"/>
@@ -5282,7 +5304,7 @@
       <c r="R29" s="170"/>
       <c r="S29" s="164">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="T29" s="165"/>
       <c r="U29" s="177"/>
@@ -5493,7 +5515,7 @@
       </c>
       <c r="G37" s="186">
         <f>SUM(G6:G36)</f>
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="H37" s="186">
         <f t="shared" si="1"/>
@@ -5505,11 +5527,11 @@
       </c>
       <c r="J37" s="186">
         <f t="shared" si="1"/>
-        <v>1975</v>
+        <v>2135</v>
       </c>
       <c r="K37" s="186">
         <f t="shared" si="1"/>
-        <v>3040</v>
+        <v>3280</v>
       </c>
       <c r="L37" s="186">
         <f t="shared" si="1"/>
@@ -5541,7 +5563,7 @@
       </c>
       <c r="S37" s="188">
         <f>SUM(S6:S36)</f>
-        <v>16345</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -7546,6 +7568,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7562,11 +7589,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7667,7 +7689,7 @@
     </row>
     <row r="2" spans="1:61" ht="15">
       <c r="A2" s="274" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="274"/>
       <c r="C2" s="274"/>
@@ -17688,8 +17710,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -17710,7 +17732,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
       <c r="A1" s="280" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="281"/>
       <c r="C1" s="281"/>
@@ -17732,7 +17754,7 @@
     </row>
     <row r="3" spans="1:29" ht="23.25">
       <c r="A3" s="283" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="284"/>
       <c r="C3" s="284"/>
@@ -17806,7 +17828,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="43">
-        <v>4297140</v>
+        <v>3909710</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="34"/>
@@ -17838,7 +17860,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="42">
-        <v>123690</v>
+        <v>133330</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="40" t="s">
@@ -17880,7 +17902,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="43">
-        <v>540574</v>
+        <v>937174</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="34"/>
@@ -17912,7 +17934,7 @@
       <c r="B8" s="42"/>
       <c r="C8" s="40"/>
       <c r="D8" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E8" s="43">
         <v>2090</v>
@@ -17947,7 +17969,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="42">
-        <v>16345</v>
+        <v>16815</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
@@ -18018,7 +18040,7 @@
       </c>
       <c r="B11" s="225">
         <f>B6-B8-B9-B10</f>
-        <v>107345</v>
+        <v>116515</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40" t="s">
@@ -18129,7 +18151,7 @@
       </c>
       <c r="B14" s="42">
         <f>B5+B6-B9-B10</f>
-        <v>7107345</v>
+        <v>7116515</v>
       </c>
       <c r="C14" s="40"/>
       <c r="D14" s="40" t="s">
@@ -18137,7 +18159,7 @@
       </c>
       <c r="E14" s="43">
         <f>E5+E6+E7+E9+E11+E12+E8</f>
-        <v>7107345</v>
+        <v>7116515</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="199">
@@ -23172,5494 +23194,4 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="37.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="175" customWidth="1"/>
-    <col min="3" max="3" width="1.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="231" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="230" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="20" style="19" customWidth="1"/>
-    <col min="10" max="10" width="6" style="19" customWidth="1"/>
-    <col min="11" max="11" width="1.5703125" style="13" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="280" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:29" ht="21.75">
-      <c r="A2" s="289" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:29" ht="23.25">
-      <c r="A3" s="283" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-    </row>
-    <row r="4" spans="1:29" ht="23.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="236"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-    </row>
-    <row r="5" spans="1:29" ht="21.75">
-      <c r="A5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="42">
-        <v>7000000</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="43">
-        <v>3921390</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-    </row>
-    <row r="6" spans="1:29" ht="21.75">
-      <c r="A6" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42">
-        <v>0</v>
-      </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="43">
-        <v>2183421</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="237"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-    </row>
-    <row r="7" spans="1:29" ht="21.75">
-      <c r="A7" s="41"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="243" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="198">
-        <v>239169</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" ht="21.75">
-      <c r="A8" s="41"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-    </row>
-    <row r="9" spans="1:29" ht="21.75">
-      <c r="A9" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="42">
-        <v>0</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="43">
-        <v>44420</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-    </row>
-    <row r="10" spans="1:29" ht="21.75">
-      <c r="A10" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="42">
-        <v>0</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="238"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" ht="21.75">
-      <c r="A11" s="224" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="225">
-        <f>B6-B8-B9-B10</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="43">
-        <v>611600</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="238"/>
-      <c r="I11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-    </row>
-    <row r="12" spans="1:29" ht="21.75">
-      <c r="A12" s="224"/>
-      <c r="B12" s="225"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="238"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" ht="21.75">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="197" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="42">
-        <f>B5+B6-B9-B10</f>
-        <v>7000000</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="43">
-        <f>E5+E6+E7+E8+E9+E10+E11</f>
-        <v>7000000</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="199">
-        <f>B14-E14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="238"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="22.5" thickBot="1">
-      <c r="A15" s="239"/>
-      <c r="B15" s="240" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="241"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="197"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" ht="22.5" hidden="1">
-      <c r="A16" s="286" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="287"/>
-      <c r="C16" s="287"/>
-      <c r="D16" s="287"/>
-      <c r="E16" s="288"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="1:29" ht="21.75" hidden="1">
-      <c r="A17" s="226"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="5"/>
-      <c r="H17" s="238"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-    </row>
-    <row r="18" spans="1:29" ht="22.5" hidden="1" thickBot="1">
-      <c r="A18" s="233"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="222"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="238"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-    </row>
-    <row r="19" spans="1:29" ht="21.75" hidden="1">
-      <c r="A19" s="223"/>
-      <c r="B19" s="223"/>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A20" s="223"/>
-      <c r="B20" s="223"/>
-      <c r="C20" s="223"/>
-      <c r="D20" s="223"/>
-      <c r="E20" s="223"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A21" s="223"/>
-      <c r="B21" s="223"/>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A22" s="223"/>
-      <c r="B22" s="223"/>
-      <c r="C22" s="223"/>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223"/>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A23" s="223"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="223"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A24" s="223"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A25" s="223"/>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A26" s="223"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A27" s="223"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" s="5" customFormat="1" ht="21.75">
-      <c r="A28" s="223"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" ht="21.75">
-      <c r="A29" s="223"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-    </row>
-    <row r="30" spans="1:29" ht="21.75">
-      <c r="A30" s="223"/>
-      <c r="B30" s="223"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-    </row>
-    <row r="31" spans="1:29" ht="21.75">
-      <c r="A31" s="223"/>
-      <c r="B31" s="223"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-    </row>
-    <row r="32" spans="1:29">
-      <c r="A32" s="5"/>
-      <c r="B32" s="228"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="229"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="5"/>
-      <c r="B33" s="228"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="229"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="5"/>
-      <c r="B34" s="228"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="229"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="5"/>
-      <c r="B35" s="228"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="229"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-    </row>
-    <row r="36" spans="1:29">
-      <c r="A36" s="5"/>
-      <c r="B36" s="177"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="229"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-    </row>
-    <row r="37" spans="1:29">
-      <c r="A37" s="5"/>
-      <c r="B37" s="177"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="229"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-    </row>
-    <row r="38" spans="1:29">
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-    </row>
-    <row r="39" spans="1:29">
-      <c r="E39" s="232"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-    </row>
-    <row r="40" spans="1:29">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-    </row>
-    <row r="41" spans="1:29">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-    </row>
-    <row r="42" spans="1:29">
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-    </row>
-    <row r="43" spans="1:29">
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-    </row>
-    <row r="44" spans="1:29">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-    </row>
-    <row r="45" spans="1:29">
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-    </row>
-    <row r="46" spans="1:29">
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-    </row>
-    <row r="47" spans="1:29">
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-    </row>
-    <row r="48" spans="1:29">
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-    </row>
-    <row r="49" spans="8:29">
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-    </row>
-    <row r="50" spans="8:29">
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-    </row>
-    <row r="51" spans="8:29">
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-    </row>
-    <row r="52" spans="8:29">
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-    </row>
-    <row r="53" spans="8:29">
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-    </row>
-    <row r="54" spans="8:29">
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-    </row>
-    <row r="55" spans="8:29">
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-    </row>
-    <row r="56" spans="8:29">
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-    </row>
-    <row r="57" spans="8:29">
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-    </row>
-    <row r="58" spans="8:29">
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-    </row>
-    <row r="59" spans="8:29">
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-    </row>
-    <row r="60" spans="8:29">
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="5"/>
-    </row>
-    <row r="61" spans="8:29">
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-      <c r="W61" s="5"/>
-      <c r="X61" s="5"/>
-      <c r="Y61" s="5"/>
-      <c r="Z61" s="5"/>
-      <c r="AA61" s="5"/>
-      <c r="AB61" s="5"/>
-      <c r="AC61" s="5"/>
-    </row>
-    <row r="62" spans="8:29">
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="5"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-    </row>
-    <row r="63" spans="8:29">
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
-      <c r="Z63" s="5"/>
-      <c r="AA63" s="5"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-    </row>
-    <row r="64" spans="8:29">
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="5"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-    </row>
-    <row r="65" spans="8:29">
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="5"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-    </row>
-    <row r="66" spans="8:29">
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="5"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-    </row>
-    <row r="67" spans="8:29">
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="5"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-    </row>
-    <row r="68" spans="8:29">
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="5"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-    </row>
-    <row r="69" spans="8:29">
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-    </row>
-    <row r="70" spans="8:29">
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-    </row>
-    <row r="71" spans="8:29">
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-    </row>
-    <row r="72" spans="8:29">
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="5"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-    </row>
-    <row r="73" spans="8:29">
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-    </row>
-    <row r="74" spans="8:29">
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="5"/>
-    </row>
-    <row r="75" spans="8:29">
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
-      <c r="AB75" s="5"/>
-      <c r="AC75" s="5"/>
-    </row>
-    <row r="76" spans="8:29">
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="5"/>
-    </row>
-    <row r="77" spans="8:29">
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
-      <c r="AC77" s="5"/>
-    </row>
-    <row r="78" spans="8:29">
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="5"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="5"/>
-    </row>
-    <row r="79" spans="8:29">
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
-      <c r="W79" s="5"/>
-      <c r="X79" s="5"/>
-      <c r="Y79" s="5"/>
-      <c r="Z79" s="5"/>
-      <c r="AA79" s="5"/>
-      <c r="AB79" s="5"/>
-      <c r="AC79" s="5"/>
-    </row>
-    <row r="80" spans="8:29">
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="5"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="5"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="5"/>
-    </row>
-    <row r="81" spans="8:29">
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="5"/>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="5"/>
-      <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
-      <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="5"/>
-      <c r="W81" s="5"/>
-      <c r="X81" s="5"/>
-      <c r="Y81" s="5"/>
-      <c r="Z81" s="5"/>
-      <c r="AA81" s="5"/>
-      <c r="AB81" s="5"/>
-      <c r="AC81" s="5"/>
-    </row>
-    <row r="82" spans="8:29">
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="5"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="5"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-    </row>
-    <row r="83" spans="8:29">
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="5"/>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5"/>
-      <c r="V83" s="5"/>
-      <c r="W83" s="5"/>
-      <c r="X83" s="5"/>
-      <c r="Y83" s="5"/>
-      <c r="Z83" s="5"/>
-      <c r="AA83" s="5"/>
-      <c r="AB83" s="5"/>
-      <c r="AC83" s="5"/>
-    </row>
-    <row r="84" spans="8:29">
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="5"/>
-      <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
-      <c r="T84" s="5"/>
-      <c r="U84" s="5"/>
-      <c r="V84" s="5"/>
-      <c r="W84" s="5"/>
-      <c r="X84" s="5"/>
-      <c r="Y84" s="5"/>
-      <c r="Z84" s="5"/>
-      <c r="AA84" s="5"/>
-      <c r="AB84" s="5"/>
-      <c r="AC84" s="5"/>
-    </row>
-    <row r="85" spans="8:29">
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="5"/>
-      <c r="L85" s="5"/>
-      <c r="M85" s="5"/>
-      <c r="N85" s="5"/>
-      <c r="O85" s="5"/>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5"/>
-      <c r="V85" s="5"/>
-      <c r="W85" s="5"/>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="5"/>
-      <c r="Z85" s="5"/>
-      <c r="AA85" s="5"/>
-      <c r="AB85" s="5"/>
-      <c r="AC85" s="5"/>
-    </row>
-    <row r="86" spans="8:29">
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-      <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="5"/>
-      <c r="X86" s="5"/>
-      <c r="Y86" s="5"/>
-      <c r="Z86" s="5"/>
-      <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-    </row>
-    <row r="87" spans="8:29">
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
-      <c r="AB87" s="5"/>
-      <c r="AC87" s="5"/>
-    </row>
-    <row r="88" spans="8:29">
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5"/>
-      <c r="Z88" s="5"/>
-      <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-    </row>
-    <row r="89" spans="8:29">
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="5"/>
-      <c r="X89" s="5"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-    </row>
-    <row r="90" spans="8:29">
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
-      <c r="W90" s="5"/>
-      <c r="X90" s="5"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="5"/>
-      <c r="AA90" s="5"/>
-      <c r="AB90" s="5"/>
-      <c r="AC90" s="5"/>
-    </row>
-    <row r="91" spans="8:29">
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="5"/>
-      <c r="X91" s="5"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="5"/>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
-    </row>
-    <row r="92" spans="8:29">
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5"/>
-      <c r="X92" s="5"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="5"/>
-      <c r="AA92" s="5"/>
-      <c r="AB92" s="5"/>
-      <c r="AC92" s="5"/>
-    </row>
-    <row r="93" spans="8:29">
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
-      <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
-    </row>
-    <row r="94" spans="8:29">
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5"/>
-      <c r="V94" s="5"/>
-      <c r="W94" s="5"/>
-      <c r="X94" s="5"/>
-      <c r="Y94" s="5"/>
-      <c r="Z94" s="5"/>
-      <c r="AA94" s="5"/>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-    </row>
-    <row r="95" spans="8:29">
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="5"/>
-    </row>
-    <row r="96" spans="8:29">
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5"/>
-      <c r="V96" s="5"/>
-      <c r="W96" s="5"/>
-      <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="5"/>
-      <c r="AA96" s="5"/>
-      <c r="AB96" s="5"/>
-      <c r="AC96" s="5"/>
-    </row>
-    <row r="97" spans="8:29">
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
-      <c r="Y97" s="5"/>
-      <c r="Z97" s="5"/>
-      <c r="AA97" s="5"/>
-      <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
-    </row>
-    <row r="98" spans="8:29">
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
-      <c r="V98" s="5"/>
-      <c r="W98" s="5"/>
-      <c r="X98" s="5"/>
-      <c r="Y98" s="5"/>
-      <c r="Z98" s="5"/>
-      <c r="AA98" s="5"/>
-      <c r="AB98" s="5"/>
-      <c r="AC98" s="5"/>
-    </row>
-    <row r="99" spans="8:29">
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
-      <c r="AA99" s="5"/>
-      <c r="AB99" s="5"/>
-      <c r="AC99" s="5"/>
-    </row>
-    <row r="100" spans="8:29">
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="5"/>
-      <c r="W100" s="5"/>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="5"/>
-      <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
-      <c r="AB100" s="5"/>
-      <c r="AC100" s="5"/>
-    </row>
-    <row r="101" spans="8:29">
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="5"/>
-      <c r="W101" s="5"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5"/>
-      <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-    </row>
-    <row r="102" spans="8:29">
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="5"/>
-      <c r="W102" s="5"/>
-      <c r="X102" s="5"/>
-      <c r="Y102" s="5"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-    </row>
-    <row r="103" spans="8:29">
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="5"/>
-      <c r="W103" s="5"/>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
-      <c r="AB103" s="5"/>
-      <c r="AC103" s="5"/>
-    </row>
-    <row r="104" spans="8:29">
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
-      <c r="AC104" s="5"/>
-    </row>
-    <row r="105" spans="8:29">
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="5"/>
-      <c r="W105" s="5"/>
-      <c r="X105" s="5"/>
-      <c r="Y105" s="5"/>
-      <c r="Z105" s="5"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="5"/>
-      <c r="AC105" s="5"/>
-    </row>
-    <row r="106" spans="8:29">
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="5"/>
-      <c r="AC106" s="5"/>
-    </row>
-    <row r="107" spans="8:29">
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-      <c r="W107" s="5"/>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
-      <c r="Z107" s="5"/>
-      <c r="AA107" s="5"/>
-      <c r="AB107" s="5"/>
-      <c r="AC107" s="5"/>
-    </row>
-    <row r="108" spans="8:29">
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
-      <c r="M108" s="5"/>
-      <c r="N108" s="5"/>
-      <c r="O108" s="5"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="5"/>
-      <c r="W108" s="5"/>
-      <c r="X108" s="5"/>
-      <c r="Y108" s="5"/>
-      <c r="Z108" s="5"/>
-      <c r="AA108" s="5"/>
-      <c r="AB108" s="5"/>
-      <c r="AC108" s="5"/>
-    </row>
-    <row r="109" spans="8:29">
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="5"/>
-      <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
-      <c r="N109" s="5"/>
-      <c r="O109" s="5"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="5"/>
-      <c r="W109" s="5"/>
-      <c r="X109" s="5"/>
-      <c r="Y109" s="5"/>
-      <c r="Z109" s="5"/>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="5"/>
-      <c r="AC109" s="5"/>
-    </row>
-    <row r="110" spans="8:29">
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5"/>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5"/>
-      <c r="W110" s="5"/>
-      <c r="X110" s="5"/>
-      <c r="Y110" s="5"/>
-      <c r="Z110" s="5"/>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="5"/>
-      <c r="AC110" s="5"/>
-    </row>
-    <row r="111" spans="8:29">
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="O111" s="5"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="5"/>
-      <c r="W111" s="5"/>
-      <c r="X111" s="5"/>
-      <c r="Y111" s="5"/>
-      <c r="Z111" s="5"/>
-      <c r="AA111" s="5"/>
-      <c r="AB111" s="5"/>
-      <c r="AC111" s="5"/>
-    </row>
-    <row r="112" spans="8:29">
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
-      <c r="AC112" s="5"/>
-    </row>
-    <row r="113" spans="8:29">
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
-      <c r="N113" s="5"/>
-      <c r="O113" s="5"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5"/>
-      <c r="W113" s="5"/>
-      <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-    </row>
-    <row r="114" spans="8:29">
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-    </row>
-    <row r="115" spans="8:29">
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5"/>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
-      <c r="Q115" s="5"/>
-      <c r="R115" s="5"/>
-      <c r="S115" s="5"/>
-      <c r="T115" s="5"/>
-      <c r="U115" s="5"/>
-      <c r="V115" s="5"/>
-      <c r="W115" s="5"/>
-      <c r="X115" s="5"/>
-      <c r="Y115" s="5"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
-      <c r="AB115" s="5"/>
-      <c r="AC115" s="5"/>
-    </row>
-    <row r="116" spans="8:29">
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="5"/>
-      <c r="M116" s="5"/>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="5"/>
-      <c r="X116" s="5"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
-      <c r="AC116" s="5"/>
-    </row>
-    <row r="117" spans="8:29">
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-      <c r="X117" s="5"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="5"/>
-      <c r="AC117" s="5"/>
-    </row>
-    <row r="118" spans="8:29">
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="5"/>
-      <c r="M118" s="5"/>
-      <c r="N118" s="5"/>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5"/>
-      <c r="V118" s="5"/>
-      <c r="W118" s="5"/>
-      <c r="X118" s="5"/>
-      <c r="Y118" s="5"/>
-      <c r="Z118" s="5"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="5"/>
-      <c r="AC118" s="5"/>
-    </row>
-    <row r="119" spans="8:29">
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="5"/>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-      <c r="N119" s="5"/>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5"/>
-      <c r="V119" s="5"/>
-      <c r="W119" s="5"/>
-      <c r="X119" s="5"/>
-      <c r="Y119" s="5"/>
-      <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
-      <c r="AB119" s="5"/>
-      <c r="AC119" s="5"/>
-    </row>
-    <row r="120" spans="8:29">
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="5"/>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5"/>
-      <c r="V120" s="5"/>
-      <c r="W120" s="5"/>
-      <c r="X120" s="5"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
-      <c r="AB120" s="5"/>
-      <c r="AC120" s="5"/>
-    </row>
-    <row r="121" spans="8:29">
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="5"/>
-      <c r="R121" s="5"/>
-      <c r="S121" s="5"/>
-      <c r="T121" s="5"/>
-      <c r="U121" s="5"/>
-      <c r="V121" s="5"/>
-      <c r="W121" s="5"/>
-      <c r="X121" s="5"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="5"/>
-      <c r="AC121" s="5"/>
-    </row>
-    <row r="122" spans="8:29">
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="5"/>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5"/>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="5"/>
-      <c r="S122" s="5"/>
-      <c r="T122" s="5"/>
-      <c r="U122" s="5"/>
-      <c r="V122" s="5"/>
-      <c r="W122" s="5"/>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="5"/>
-      <c r="Z122" s="5"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="5"/>
-    </row>
-    <row r="123" spans="8:29">
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5"/>
-      <c r="V123" s="5"/>
-      <c r="W123" s="5"/>
-      <c r="X123" s="5"/>
-      <c r="Y123" s="5"/>
-      <c r="Z123" s="5"/>
-      <c r="AA123" s="5"/>
-      <c r="AB123" s="5"/>
-      <c r="AC123" s="5"/>
-    </row>
-    <row r="124" spans="8:29">
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="5"/>
-      <c r="O124" s="5"/>
-      <c r="P124" s="5"/>
-      <c r="Q124" s="5"/>
-      <c r="R124" s="5"/>
-      <c r="S124" s="5"/>
-      <c r="T124" s="5"/>
-      <c r="U124" s="5"/>
-      <c r="V124" s="5"/>
-      <c r="W124" s="5"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5"/>
-      <c r="Z124" s="5"/>
-      <c r="AA124" s="5"/>
-      <c r="AB124" s="5"/>
-      <c r="AC124" s="5"/>
-    </row>
-    <row r="125" spans="8:29">
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="5"/>
-      <c r="O125" s="5"/>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
-      <c r="W125" s="5"/>
-      <c r="X125" s="5"/>
-      <c r="Y125" s="5"/>
-      <c r="Z125" s="5"/>
-      <c r="AA125" s="5"/>
-      <c r="AB125" s="5"/>
-      <c r="AC125" s="5"/>
-    </row>
-    <row r="126" spans="8:29">
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
-      <c r="U126" s="5"/>
-      <c r="V126" s="5"/>
-      <c r="W126" s="5"/>
-      <c r="X126" s="5"/>
-      <c r="Y126" s="5"/>
-      <c r="Z126" s="5"/>
-      <c r="AA126" s="5"/>
-      <c r="AB126" s="5"/>
-      <c r="AC126" s="5"/>
-    </row>
-    <row r="127" spans="8:29">
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="5"/>
-      <c r="O127" s="5"/>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="5"/>
-      <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
-      <c r="T127" s="5"/>
-      <c r="U127" s="5"/>
-      <c r="V127" s="5"/>
-      <c r="W127" s="5"/>
-      <c r="X127" s="5"/>
-      <c r="Y127" s="5"/>
-      <c r="Z127" s="5"/>
-      <c r="AA127" s="5"/>
-      <c r="AB127" s="5"/>
-      <c r="AC127" s="5"/>
-    </row>
-    <row r="128" spans="8:29">
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="5"/>
-      <c r="O128" s="5"/>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="5"/>
-      <c r="R128" s="5"/>
-      <c r="S128" s="5"/>
-      <c r="T128" s="5"/>
-      <c r="U128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="W128" s="5"/>
-      <c r="X128" s="5"/>
-      <c r="Y128" s="5"/>
-      <c r="Z128" s="5"/>
-      <c r="AA128" s="5"/>
-      <c r="AB128" s="5"/>
-      <c r="AC128" s="5"/>
-    </row>
-    <row r="129" spans="8:29">
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="5"/>
-      <c r="O129" s="5"/>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5"/>
-      <c r="V129" s="5"/>
-      <c r="W129" s="5"/>
-      <c r="X129" s="5"/>
-      <c r="Y129" s="5"/>
-      <c r="Z129" s="5"/>
-      <c r="AA129" s="5"/>
-      <c r="AB129" s="5"/>
-      <c r="AC129" s="5"/>
-    </row>
-    <row r="130" spans="8:29">
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
-      <c r="U130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="W130" s="5"/>
-      <c r="X130" s="5"/>
-      <c r="Y130" s="5"/>
-      <c r="Z130" s="5"/>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5"/>
-      <c r="AC130" s="5"/>
-    </row>
-    <row r="131" spans="8:29">
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-      <c r="O131" s="5"/>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5"/>
-      <c r="V131" s="5"/>
-      <c r="W131" s="5"/>
-      <c r="X131" s="5"/>
-      <c r="Y131" s="5"/>
-      <c r="Z131" s="5"/>
-      <c r="AA131" s="5"/>
-      <c r="AB131" s="5"/>
-      <c r="AC131" s="5"/>
-    </row>
-    <row r="132" spans="8:29">
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-      <c r="O132" s="5"/>
-      <c r="P132" s="5"/>
-      <c r="Q132" s="5"/>
-      <c r="R132" s="5"/>
-      <c r="S132" s="5"/>
-      <c r="T132" s="5"/>
-      <c r="U132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="W132" s="5"/>
-      <c r="X132" s="5"/>
-      <c r="Y132" s="5"/>
-      <c r="Z132" s="5"/>
-      <c r="AA132" s="5"/>
-      <c r="AB132" s="5"/>
-      <c r="AC132" s="5"/>
-    </row>
-    <row r="133" spans="8:29">
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-      <c r="O133" s="5"/>
-      <c r="P133" s="5"/>
-      <c r="Q133" s="5"/>
-      <c r="R133" s="5"/>
-      <c r="S133" s="5"/>
-      <c r="T133" s="5"/>
-      <c r="U133" s="5"/>
-      <c r="V133" s="5"/>
-      <c r="W133" s="5"/>
-      <c r="X133" s="5"/>
-      <c r="Y133" s="5"/>
-      <c r="Z133" s="5"/>
-      <c r="AA133" s="5"/>
-      <c r="AB133" s="5"/>
-      <c r="AC133" s="5"/>
-    </row>
-    <row r="134" spans="8:29">
-      <c r="H134" s="1"/>
-      <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-      <c r="O134" s="5"/>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5"/>
-      <c r="V134" s="5"/>
-      <c r="W134" s="5"/>
-      <c r="X134" s="5"/>
-      <c r="Y134" s="5"/>
-      <c r="Z134" s="5"/>
-      <c r="AA134" s="5"/>
-      <c r="AB134" s="5"/>
-      <c r="AC134" s="5"/>
-    </row>
-    <row r="135" spans="8:29">
-      <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-      <c r="O135" s="5"/>
-      <c r="P135" s="5"/>
-      <c r="Q135" s="5"/>
-      <c r="R135" s="5"/>
-      <c r="S135" s="5"/>
-      <c r="T135" s="5"/>
-      <c r="U135" s="5"/>
-      <c r="V135" s="5"/>
-      <c r="W135" s="5"/>
-      <c r="X135" s="5"/>
-      <c r="Y135" s="5"/>
-      <c r="Z135" s="5"/>
-      <c r="AA135" s="5"/>
-      <c r="AB135" s="5"/>
-      <c r="AC135" s="5"/>
-    </row>
-    <row r="136" spans="8:29">
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
-      <c r="U136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="W136" s="5"/>
-      <c r="X136" s="5"/>
-      <c r="Y136" s="5"/>
-      <c r="Z136" s="5"/>
-      <c r="AA136" s="5"/>
-      <c r="AB136" s="5"/>
-      <c r="AC136" s="5"/>
-    </row>
-    <row r="137" spans="8:29">
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-      <c r="O137" s="5"/>
-      <c r="P137" s="5"/>
-      <c r="Q137" s="5"/>
-      <c r="R137" s="5"/>
-      <c r="S137" s="5"/>
-      <c r="T137" s="5"/>
-      <c r="U137" s="5"/>
-      <c r="V137" s="5"/>
-      <c r="W137" s="5"/>
-      <c r="X137" s="5"/>
-      <c r="Y137" s="5"/>
-      <c r="Z137" s="5"/>
-      <c r="AA137" s="5"/>
-      <c r="AB137" s="5"/>
-      <c r="AC137" s="5"/>
-    </row>
-    <row r="138" spans="8:29">
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
-      <c r="U138" s="5"/>
-      <c r="V138" s="5"/>
-      <c r="W138" s="5"/>
-      <c r="X138" s="5"/>
-      <c r="Y138" s="5"/>
-      <c r="Z138" s="5"/>
-      <c r="AA138" s="5"/>
-      <c r="AB138" s="5"/>
-      <c r="AC138" s="5"/>
-    </row>
-    <row r="139" spans="8:29">
-      <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-      <c r="O139" s="5"/>
-      <c r="P139" s="5"/>
-      <c r="Q139" s="5"/>
-      <c r="R139" s="5"/>
-      <c r="S139" s="5"/>
-      <c r="T139" s="5"/>
-      <c r="U139" s="5"/>
-      <c r="V139" s="5"/>
-      <c r="W139" s="5"/>
-      <c r="X139" s="5"/>
-      <c r="Y139" s="5"/>
-      <c r="Z139" s="5"/>
-      <c r="AA139" s="5"/>
-      <c r="AB139" s="5"/>
-      <c r="AC139" s="5"/>
-    </row>
-    <row r="140" spans="8:29">
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-      <c r="O140" s="5"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="T140" s="5"/>
-      <c r="U140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="W140" s="5"/>
-      <c r="X140" s="5"/>
-      <c r="Y140" s="5"/>
-      <c r="Z140" s="5"/>
-      <c r="AA140" s="5"/>
-      <c r="AB140" s="5"/>
-      <c r="AC140" s="5"/>
-    </row>
-    <row r="141" spans="8:29">
-      <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-      <c r="O141" s="5"/>
-      <c r="P141" s="5"/>
-      <c r="Q141" s="5"/>
-      <c r="R141" s="5"/>
-      <c r="S141" s="5"/>
-      <c r="T141" s="5"/>
-      <c r="U141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="W141" s="5"/>
-      <c r="X141" s="5"/>
-      <c r="Y141" s="5"/>
-      <c r="Z141" s="5"/>
-      <c r="AA141" s="5"/>
-      <c r="AB141" s="5"/>
-      <c r="AC141" s="5"/>
-    </row>
-    <row r="142" spans="8:29">
-      <c r="H142" s="1"/>
-      <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="W142" s="5"/>
-      <c r="X142" s="5"/>
-      <c r="Y142" s="5"/>
-      <c r="Z142" s="5"/>
-      <c r="AA142" s="5"/>
-      <c r="AB142" s="5"/>
-      <c r="AC142" s="5"/>
-    </row>
-    <row r="143" spans="8:29">
-      <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-      <c r="O143" s="5"/>
-      <c r="P143" s="5"/>
-      <c r="Q143" s="5"/>
-      <c r="R143" s="5"/>
-      <c r="S143" s="5"/>
-      <c r="T143" s="5"/>
-      <c r="U143" s="5"/>
-      <c r="V143" s="5"/>
-      <c r="W143" s="5"/>
-      <c r="X143" s="5"/>
-      <c r="Y143" s="5"/>
-      <c r="Z143" s="5"/>
-      <c r="AA143" s="5"/>
-      <c r="AB143" s="5"/>
-      <c r="AC143" s="5"/>
-    </row>
-    <row r="144" spans="8:29">
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-      <c r="O144" s="5"/>
-      <c r="P144" s="5"/>
-      <c r="Q144" s="5"/>
-      <c r="R144" s="5"/>
-      <c r="S144" s="5"/>
-      <c r="T144" s="5"/>
-      <c r="U144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="W144" s="5"/>
-      <c r="X144" s="5"/>
-      <c r="Y144" s="5"/>
-      <c r="Z144" s="5"/>
-      <c r="AA144" s="5"/>
-      <c r="AB144" s="5"/>
-      <c r="AC144" s="5"/>
-    </row>
-    <row r="145" spans="8:29">
-      <c r="H145" s="1"/>
-      <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-      <c r="O145" s="5"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="W145" s="5"/>
-      <c r="X145" s="5"/>
-      <c r="Y145" s="5"/>
-      <c r="Z145" s="5"/>
-      <c r="AA145" s="5"/>
-      <c r="AB145" s="5"/>
-      <c r="AC145" s="5"/>
-    </row>
-    <row r="146" spans="8:29">
-      <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-      <c r="O146" s="5"/>
-      <c r="P146" s="5"/>
-      <c r="Q146" s="5"/>
-      <c r="R146" s="5"/>
-      <c r="S146" s="5"/>
-      <c r="T146" s="5"/>
-      <c r="U146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="W146" s="5"/>
-      <c r="X146" s="5"/>
-      <c r="Y146" s="5"/>
-      <c r="Z146" s="5"/>
-      <c r="AA146" s="5"/>
-      <c r="AB146" s="5"/>
-      <c r="AC146" s="5"/>
-    </row>
-    <row r="147" spans="8:29">
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-      <c r="O147" s="5"/>
-      <c r="P147" s="5"/>
-      <c r="Q147" s="5"/>
-      <c r="R147" s="5"/>
-      <c r="S147" s="5"/>
-      <c r="T147" s="5"/>
-      <c r="U147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="W147" s="5"/>
-      <c r="X147" s="5"/>
-      <c r="Y147" s="5"/>
-      <c r="Z147" s="5"/>
-      <c r="AA147" s="5"/>
-      <c r="AB147" s="5"/>
-      <c r="AC147" s="5"/>
-    </row>
-    <row r="148" spans="8:29">
-      <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-      <c r="O148" s="5"/>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5"/>
-      <c r="V148" s="5"/>
-      <c r="W148" s="5"/>
-      <c r="X148" s="5"/>
-      <c r="Y148" s="5"/>
-      <c r="Z148" s="5"/>
-      <c r="AA148" s="5"/>
-      <c r="AB148" s="5"/>
-      <c r="AC148" s="5"/>
-    </row>
-    <row r="149" spans="8:29">
-      <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="5"/>
-      <c r="M149" s="5"/>
-      <c r="N149" s="5"/>
-      <c r="O149" s="5"/>
-      <c r="P149" s="5"/>
-      <c r="Q149" s="5"/>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="W149" s="5"/>
-      <c r="X149" s="5"/>
-      <c r="Y149" s="5"/>
-      <c r="Z149" s="5"/>
-      <c r="AA149" s="5"/>
-      <c r="AB149" s="5"/>
-      <c r="AC149" s="5"/>
-    </row>
-    <row r="150" spans="8:29">
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="5"/>
-      <c r="M150" s="5"/>
-      <c r="N150" s="5"/>
-      <c r="O150" s="5"/>
-      <c r="P150" s="5"/>
-      <c r="Q150" s="5"/>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="W150" s="5"/>
-      <c r="X150" s="5"/>
-      <c r="Y150" s="5"/>
-      <c r="Z150" s="5"/>
-      <c r="AA150" s="5"/>
-      <c r="AB150" s="5"/>
-      <c r="AC150" s="5"/>
-    </row>
-    <row r="151" spans="8:29">
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
-      <c r="N151" s="5"/>
-      <c r="O151" s="5"/>
-      <c r="P151" s="5"/>
-      <c r="Q151" s="5"/>
-      <c r="R151" s="5"/>
-      <c r="S151" s="5"/>
-      <c r="T151" s="5"/>
-      <c r="U151" s="5"/>
-      <c r="V151" s="5"/>
-      <c r="W151" s="5"/>
-      <c r="X151" s="5"/>
-      <c r="Y151" s="5"/>
-      <c r="Z151" s="5"/>
-      <c r="AA151" s="5"/>
-      <c r="AB151" s="5"/>
-      <c r="AC151" s="5"/>
-    </row>
-    <row r="152" spans="8:29">
-      <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
-      <c r="N152" s="5"/>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5"/>
-      <c r="V152" s="5"/>
-      <c r="W152" s="5"/>
-      <c r="X152" s="5"/>
-      <c r="Y152" s="5"/>
-      <c r="Z152" s="5"/>
-      <c r="AA152" s="5"/>
-      <c r="AB152" s="5"/>
-      <c r="AC152" s="5"/>
-    </row>
-    <row r="153" spans="8:29">
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="5"/>
-      <c r="M153" s="5"/>
-      <c r="N153" s="5"/>
-      <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-      <c r="Q153" s="5"/>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5"/>
-      <c r="V153" s="5"/>
-      <c r="W153" s="5"/>
-      <c r="X153" s="5"/>
-      <c r="Y153" s="5"/>
-      <c r="Z153" s="5"/>
-      <c r="AA153" s="5"/>
-      <c r="AB153" s="5"/>
-      <c r="AC153" s="5"/>
-    </row>
-    <row r="154" spans="8:29">
-      <c r="H154" s="1"/>
-      <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
-      <c r="S154" s="5"/>
-      <c r="T154" s="5"/>
-      <c r="U154" s="5"/>
-      <c r="V154" s="5"/>
-      <c r="W154" s="5"/>
-      <c r="X154" s="5"/>
-      <c r="Y154" s="5"/>
-      <c r="Z154" s="5"/>
-      <c r="AA154" s="5"/>
-      <c r="AB154" s="5"/>
-      <c r="AC154" s="5"/>
-    </row>
-    <row r="155" spans="8:29">
-      <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="5"/>
-      <c r="M155" s="5"/>
-      <c r="N155" s="5"/>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
-      <c r="U155" s="5"/>
-      <c r="V155" s="5"/>
-      <c r="W155" s="5"/>
-      <c r="X155" s="5"/>
-      <c r="Y155" s="5"/>
-      <c r="Z155" s="5"/>
-      <c r="AA155" s="5"/>
-      <c r="AB155" s="5"/>
-      <c r="AC155" s="5"/>
-    </row>
-    <row r="156" spans="8:29">
-      <c r="H156" s="1"/>
-      <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5"/>
-      <c r="V156" s="5"/>
-      <c r="W156" s="5"/>
-      <c r="X156" s="5"/>
-      <c r="Y156" s="5"/>
-      <c r="Z156" s="5"/>
-      <c r="AA156" s="5"/>
-      <c r="AB156" s="5"/>
-      <c r="AC156" s="5"/>
-    </row>
-    <row r="157" spans="8:29">
-      <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-      <c r="K157" s="5"/>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="5"/>
-      <c r="O157" s="5"/>
-      <c r="P157" s="5"/>
-      <c r="Q157" s="5"/>
-      <c r="R157" s="5"/>
-      <c r="S157" s="5"/>
-      <c r="T157" s="5"/>
-      <c r="U157" s="5"/>
-      <c r="V157" s="5"/>
-      <c r="W157" s="5"/>
-      <c r="X157" s="5"/>
-      <c r="Y157" s="5"/>
-      <c r="Z157" s="5"/>
-      <c r="AA157" s="5"/>
-      <c r="AB157" s="5"/>
-      <c r="AC157" s="5"/>
-    </row>
-    <row r="158" spans="8:29">
-      <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-      <c r="K158" s="5"/>
-      <c r="L158" s="5"/>
-      <c r="M158" s="5"/>
-      <c r="N158" s="5"/>
-      <c r="O158" s="5"/>
-      <c r="P158" s="5"/>
-      <c r="Q158" s="5"/>
-      <c r="R158" s="5"/>
-      <c r="S158" s="5"/>
-      <c r="T158" s="5"/>
-      <c r="U158" s="5"/>
-      <c r="V158" s="5"/>
-      <c r="W158" s="5"/>
-      <c r="X158" s="5"/>
-      <c r="Y158" s="5"/>
-      <c r="Z158" s="5"/>
-      <c r="AA158" s="5"/>
-      <c r="AB158" s="5"/>
-      <c r="AC158" s="5"/>
-    </row>
-    <row r="159" spans="8:29">
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-      <c r="K159" s="5"/>
-      <c r="L159" s="5"/>
-      <c r="M159" s="5"/>
-      <c r="N159" s="5"/>
-      <c r="O159" s="5"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5"/>
-      <c r="V159" s="5"/>
-      <c r="W159" s="5"/>
-      <c r="X159" s="5"/>
-      <c r="Y159" s="5"/>
-      <c r="Z159" s="5"/>
-      <c r="AA159" s="5"/>
-      <c r="AB159" s="5"/>
-      <c r="AC159" s="5"/>
-    </row>
-    <row r="160" spans="8:29">
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-      <c r="K160" s="5"/>
-      <c r="L160" s="5"/>
-      <c r="M160" s="5"/>
-      <c r="N160" s="5"/>
-      <c r="O160" s="5"/>
-      <c r="P160" s="5"/>
-      <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5"/>
-      <c r="V160" s="5"/>
-      <c r="W160" s="5"/>
-      <c r="X160" s="5"/>
-      <c r="Y160" s="5"/>
-      <c r="Z160" s="5"/>
-      <c r="AA160" s="5"/>
-      <c r="AB160" s="5"/>
-      <c r="AC160" s="5"/>
-    </row>
-    <row r="161" spans="8:29">
-      <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="5"/>
-      <c r="O161" s="5"/>
-      <c r="P161" s="5"/>
-      <c r="Q161" s="5"/>
-      <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
-      <c r="T161" s="5"/>
-      <c r="U161" s="5"/>
-      <c r="V161" s="5"/>
-      <c r="W161" s="5"/>
-      <c r="X161" s="5"/>
-      <c r="Y161" s="5"/>
-      <c r="Z161" s="5"/>
-      <c r="AA161" s="5"/>
-      <c r="AB161" s="5"/>
-      <c r="AC161" s="5"/>
-    </row>
-    <row r="162" spans="8:29">
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="5"/>
-      <c r="O162" s="5"/>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5"/>
-      <c r="V162" s="5"/>
-      <c r="W162" s="5"/>
-      <c r="X162" s="5"/>
-      <c r="Y162" s="5"/>
-      <c r="Z162" s="5"/>
-      <c r="AA162" s="5"/>
-      <c r="AB162" s="5"/>
-      <c r="AC162" s="5"/>
-    </row>
-    <row r="163" spans="8:29">
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="5"/>
-      <c r="O163" s="5"/>
-      <c r="P163" s="5"/>
-      <c r="Q163" s="5"/>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5"/>
-      <c r="V163" s="5"/>
-      <c r="W163" s="5"/>
-      <c r="X163" s="5"/>
-      <c r="Y163" s="5"/>
-      <c r="Z163" s="5"/>
-      <c r="AA163" s="5"/>
-      <c r="AB163" s="5"/>
-      <c r="AC163" s="5"/>
-    </row>
-    <row r="164" spans="8:29">
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="5"/>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5"/>
-      <c r="V164" s="5"/>
-      <c r="W164" s="5"/>
-      <c r="X164" s="5"/>
-      <c r="Y164" s="5"/>
-      <c r="Z164" s="5"/>
-      <c r="AA164" s="5"/>
-      <c r="AB164" s="5"/>
-      <c r="AC164" s="5"/>
-    </row>
-    <row r="165" spans="8:29">
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="5"/>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
-      <c r="U165" s="5"/>
-      <c r="V165" s="5"/>
-      <c r="W165" s="5"/>
-      <c r="X165" s="5"/>
-      <c r="Y165" s="5"/>
-      <c r="Z165" s="5"/>
-      <c r="AA165" s="5"/>
-      <c r="AB165" s="5"/>
-      <c r="AC165" s="5"/>
-    </row>
-    <row r="166" spans="8:29">
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="5"/>
-      <c r="O166" s="5"/>
-      <c r="P166" s="5"/>
-      <c r="Q166" s="5"/>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5"/>
-      <c r="V166" s="5"/>
-      <c r="W166" s="5"/>
-      <c r="X166" s="5"/>
-      <c r="Y166" s="5"/>
-      <c r="Z166" s="5"/>
-      <c r="AA166" s="5"/>
-      <c r="AB166" s="5"/>
-      <c r="AC166" s="5"/>
-    </row>
-    <row r="167" spans="8:29">
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="5"/>
-      <c r="O167" s="5"/>
-      <c r="P167" s="5"/>
-      <c r="Q167" s="5"/>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
-      <c r="X167" s="5"/>
-      <c r="Y167" s="5"/>
-      <c r="Z167" s="5"/>
-      <c r="AA167" s="5"/>
-      <c r="AB167" s="5"/>
-      <c r="AC167" s="5"/>
-    </row>
-    <row r="168" spans="8:29">
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="5"/>
-      <c r="O168" s="5"/>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5"/>
-      <c r="V168" s="5"/>
-      <c r="W168" s="5"/>
-      <c r="X168" s="5"/>
-      <c r="Y168" s="5"/>
-      <c r="Z168" s="5"/>
-      <c r="AA168" s="5"/>
-      <c r="AB168" s="5"/>
-      <c r="AC168" s="5"/>
-    </row>
-    <row r="169" spans="8:29">
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="5"/>
-      <c r="O169" s="5"/>
-      <c r="P169" s="5"/>
-      <c r="Q169" s="5"/>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5"/>
-      <c r="V169" s="5"/>
-      <c r="W169" s="5"/>
-      <c r="X169" s="5"/>
-      <c r="Y169" s="5"/>
-      <c r="Z169" s="5"/>
-      <c r="AA169" s="5"/>
-      <c r="AB169" s="5"/>
-      <c r="AC169" s="5"/>
-    </row>
-    <row r="170" spans="8:29">
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="5"/>
-      <c r="O170" s="5"/>
-      <c r="P170" s="5"/>
-      <c r="Q170" s="5"/>
-      <c r="R170" s="5"/>
-      <c r="S170" s="5"/>
-      <c r="T170" s="5"/>
-      <c r="U170" s="5"/>
-      <c r="V170" s="5"/>
-      <c r="W170" s="5"/>
-      <c r="X170" s="5"/>
-      <c r="Y170" s="5"/>
-      <c r="Z170" s="5"/>
-      <c r="AA170" s="5"/>
-      <c r="AB170" s="5"/>
-      <c r="AC170" s="5"/>
-    </row>
-    <row r="171" spans="8:29">
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="5"/>
-      <c r="O171" s="5"/>
-      <c r="P171" s="5"/>
-      <c r="Q171" s="5"/>
-      <c r="R171" s="5"/>
-      <c r="S171" s="5"/>
-      <c r="T171" s="5"/>
-      <c r="U171" s="5"/>
-      <c r="V171" s="5"/>
-      <c r="W171" s="5"/>
-      <c r="X171" s="5"/>
-      <c r="Y171" s="5"/>
-      <c r="Z171" s="5"/>
-      <c r="AA171" s="5"/>
-      <c r="AB171" s="5"/>
-      <c r="AC171" s="5"/>
-    </row>
-    <row r="172" spans="8:29">
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="5"/>
-      <c r="L172" s="5"/>
-      <c r="M172" s="5"/>
-      <c r="N172" s="5"/>
-      <c r="O172" s="5"/>
-      <c r="P172" s="5"/>
-      <c r="Q172" s="5"/>
-      <c r="R172" s="5"/>
-      <c r="S172" s="5"/>
-      <c r="T172" s="5"/>
-      <c r="U172" s="5"/>
-      <c r="V172" s="5"/>
-      <c r="W172" s="5"/>
-      <c r="X172" s="5"/>
-      <c r="Y172" s="5"/>
-      <c r="Z172" s="5"/>
-      <c r="AA172" s="5"/>
-      <c r="AB172" s="5"/>
-      <c r="AC172" s="5"/>
-    </row>
-    <row r="173" spans="8:29">
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="5"/>
-      <c r="L173" s="5"/>
-      <c r="M173" s="5"/>
-      <c r="N173" s="5"/>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
-      <c r="U173" s="5"/>
-      <c r="V173" s="5"/>
-      <c r="W173" s="5"/>
-      <c r="X173" s="5"/>
-      <c r="Y173" s="5"/>
-      <c r="Z173" s="5"/>
-      <c r="AA173" s="5"/>
-      <c r="AB173" s="5"/>
-      <c r="AC173" s="5"/>
-    </row>
-    <row r="174" spans="8:29">
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="5"/>
-      <c r="L174" s="5"/>
-      <c r="M174" s="5"/>
-      <c r="N174" s="5"/>
-      <c r="O174" s="5"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="T174" s="5"/>
-      <c r="U174" s="5"/>
-      <c r="V174" s="5"/>
-      <c r="W174" s="5"/>
-      <c r="X174" s="5"/>
-      <c r="Y174" s="5"/>
-      <c r="Z174" s="5"/>
-      <c r="AA174" s="5"/>
-      <c r="AB174" s="5"/>
-      <c r="AC174" s="5"/>
-    </row>
-    <row r="175" spans="8:29">
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="5"/>
-      <c r="L175" s="5"/>
-      <c r="M175" s="5"/>
-      <c r="N175" s="5"/>
-      <c r="O175" s="5"/>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5"/>
-      <c r="V175" s="5"/>
-      <c r="W175" s="5"/>
-      <c r="X175" s="5"/>
-      <c r="Y175" s="5"/>
-      <c r="Z175" s="5"/>
-      <c r="AA175" s="5"/>
-      <c r="AB175" s="5"/>
-      <c r="AC175" s="5"/>
-    </row>
-    <row r="176" spans="8:29">
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="M176" s="5"/>
-      <c r="N176" s="5"/>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-      <c r="U176" s="5"/>
-      <c r="V176" s="5"/>
-      <c r="W176" s="5"/>
-      <c r="X176" s="5"/>
-      <c r="Y176" s="5"/>
-      <c r="Z176" s="5"/>
-      <c r="AA176" s="5"/>
-      <c r="AB176" s="5"/>
-      <c r="AC176" s="5"/>
-    </row>
-    <row r="177" spans="8:29">
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="5"/>
-      <c r="L177" s="5"/>
-      <c r="M177" s="5"/>
-      <c r="N177" s="5"/>
-      <c r="O177" s="5"/>
-      <c r="P177" s="5"/>
-      <c r="Q177" s="5"/>
-      <c r="R177" s="5"/>
-      <c r="S177" s="5"/>
-      <c r="T177" s="5"/>
-      <c r="U177" s="5"/>
-      <c r="V177" s="5"/>
-      <c r="W177" s="5"/>
-      <c r="X177" s="5"/>
-      <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
-      <c r="AA177" s="5"/>
-      <c r="AB177" s="5"/>
-      <c r="AC177" s="5"/>
-    </row>
-    <row r="178" spans="8:29">
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="5"/>
-      <c r="L178" s="5"/>
-      <c r="M178" s="5"/>
-      <c r="N178" s="5"/>
-      <c r="O178" s="5"/>
-      <c r="P178" s="5"/>
-      <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
-      <c r="S178" s="5"/>
-      <c r="T178" s="5"/>
-      <c r="U178" s="5"/>
-      <c r="V178" s="5"/>
-      <c r="W178" s="5"/>
-      <c r="X178" s="5"/>
-      <c r="Y178" s="5"/>
-      <c r="Z178" s="5"/>
-      <c r="AA178" s="5"/>
-      <c r="AB178" s="5"/>
-      <c r="AC178" s="5"/>
-    </row>
-    <row r="179" spans="8:29">
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="5"/>
-      <c r="L179" s="5"/>
-      <c r="M179" s="5"/>
-      <c r="N179" s="5"/>
-      <c r="O179" s="5"/>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5"/>
-      <c r="V179" s="5"/>
-      <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
-      <c r="Y179" s="5"/>
-      <c r="Z179" s="5"/>
-      <c r="AA179" s="5"/>
-      <c r="AB179" s="5"/>
-      <c r="AC179" s="5"/>
-    </row>
-    <row r="180" spans="8:29">
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="5"/>
-      <c r="L180" s="5"/>
-      <c r="M180" s="5"/>
-      <c r="N180" s="5"/>
-      <c r="O180" s="5"/>
-      <c r="P180" s="5"/>
-      <c r="Q180" s="5"/>
-      <c r="R180" s="5"/>
-      <c r="S180" s="5"/>
-      <c r="T180" s="5"/>
-      <c r="U180" s="5"/>
-      <c r="V180" s="5"/>
-      <c r="W180" s="5"/>
-      <c r="X180" s="5"/>
-      <c r="Y180" s="5"/>
-      <c r="Z180" s="5"/>
-      <c r="AA180" s="5"/>
-      <c r="AB180" s="5"/>
-      <c r="AC180" s="5"/>
-    </row>
-    <row r="181" spans="8:29">
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="5"/>
-      <c r="L181" s="5"/>
-      <c r="M181" s="5"/>
-      <c r="N181" s="5"/>
-      <c r="O181" s="5"/>
-      <c r="P181" s="5"/>
-      <c r="Q181" s="5"/>
-      <c r="R181" s="5"/>
-      <c r="S181" s="5"/>
-      <c r="T181" s="5"/>
-      <c r="U181" s="5"/>
-      <c r="V181" s="5"/>
-      <c r="W181" s="5"/>
-      <c r="X181" s="5"/>
-      <c r="Y181" s="5"/>
-      <c r="Z181" s="5"/>
-      <c r="AA181" s="5"/>
-      <c r="AB181" s="5"/>
-      <c r="AC181" s="5"/>
-    </row>
-    <row r="182" spans="8:29">
-      <c r="H182" s="1"/>
-      <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
-      <c r="K182" s="5"/>
-      <c r="L182" s="5"/>
-      <c r="M182" s="5"/>
-      <c r="N182" s="5"/>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5"/>
-      <c r="V182" s="5"/>
-      <c r="W182" s="5"/>
-      <c r="X182" s="5"/>
-      <c r="Y182" s="5"/>
-      <c r="Z182" s="5"/>
-      <c r="AA182" s="5"/>
-      <c r="AB182" s="5"/>
-      <c r="AC182" s="5"/>
-    </row>
-    <row r="183" spans="8:29">
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
-      <c r="K183" s="5"/>
-      <c r="L183" s="5"/>
-      <c r="M183" s="5"/>
-      <c r="N183" s="5"/>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5"/>
-      <c r="V183" s="5"/>
-      <c r="W183" s="5"/>
-      <c r="X183" s="5"/>
-      <c r="Y183" s="5"/>
-      <c r="Z183" s="5"/>
-      <c r="AA183" s="5"/>
-      <c r="AB183" s="5"/>
-      <c r="AC183" s="5"/>
-    </row>
-    <row r="184" spans="8:29">
-      <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
-      <c r="K184" s="5"/>
-      <c r="L184" s="5"/>
-      <c r="M184" s="5"/>
-      <c r="N184" s="5"/>
-      <c r="O184" s="5"/>
-      <c r="P184" s="5"/>
-      <c r="Q184" s="5"/>
-      <c r="R184" s="5"/>
-      <c r="S184" s="5"/>
-      <c r="T184" s="5"/>
-      <c r="U184" s="5"/>
-      <c r="V184" s="5"/>
-      <c r="W184" s="5"/>
-      <c r="X184" s="5"/>
-      <c r="Y184" s="5"/>
-      <c r="Z184" s="5"/>
-      <c r="AA184" s="5"/>
-      <c r="AB184" s="5"/>
-      <c r="AC184" s="5"/>
-    </row>
-    <row r="185" spans="8:29">
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="K185" s="5"/>
-      <c r="L185" s="5"/>
-      <c r="M185" s="5"/>
-      <c r="N185" s="5"/>
-      <c r="O185" s="5"/>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5"/>
-      <c r="V185" s="5"/>
-      <c r="W185" s="5"/>
-      <c r="X185" s="5"/>
-      <c r="Y185" s="5"/>
-      <c r="Z185" s="5"/>
-      <c r="AA185" s="5"/>
-      <c r="AB185" s="5"/>
-      <c r="AC185" s="5"/>
-    </row>
-    <row r="186" spans="8:29">
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="5"/>
-      <c r="L186" s="5"/>
-      <c r="M186" s="5"/>
-      <c r="N186" s="5"/>
-      <c r="O186" s="5"/>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5"/>
-      <c r="V186" s="5"/>
-      <c r="W186" s="5"/>
-      <c r="X186" s="5"/>
-      <c r="Y186" s="5"/>
-      <c r="Z186" s="5"/>
-      <c r="AA186" s="5"/>
-      <c r="AB186" s="5"/>
-      <c r="AC186" s="5"/>
-    </row>
-    <row r="187" spans="8:29">
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="K187" s="5"/>
-      <c r="L187" s="5"/>
-      <c r="M187" s="5"/>
-      <c r="N187" s="5"/>
-      <c r="O187" s="5"/>
-      <c r="P187" s="5"/>
-      <c r="Q187" s="5"/>
-      <c r="R187" s="5"/>
-      <c r="S187" s="5"/>
-      <c r="T187" s="5"/>
-      <c r="U187" s="5"/>
-      <c r="V187" s="5"/>
-      <c r="W187" s="5"/>
-      <c r="X187" s="5"/>
-      <c r="Y187" s="5"/>
-      <c r="Z187" s="5"/>
-      <c r="AA187" s="5"/>
-      <c r="AB187" s="5"/>
-      <c r="AC187" s="5"/>
-    </row>
-    <row r="188" spans="8:29">
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
-      <c r="K188" s="5"/>
-      <c r="L188" s="5"/>
-      <c r="M188" s="5"/>
-      <c r="N188" s="5"/>
-      <c r="O188" s="5"/>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-      <c r="U188" s="5"/>
-      <c r="V188" s="5"/>
-      <c r="W188" s="5"/>
-      <c r="X188" s="5"/>
-      <c r="Y188" s="5"/>
-      <c r="Z188" s="5"/>
-      <c r="AA188" s="5"/>
-      <c r="AB188" s="5"/>
-      <c r="AC188" s="5"/>
-    </row>
-    <row r="189" spans="8:29">
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="5"/>
-      <c r="L189" s="5"/>
-      <c r="M189" s="5"/>
-      <c r="N189" s="5"/>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5"/>
-      <c r="V189" s="5"/>
-      <c r="W189" s="5"/>
-      <c r="X189" s="5"/>
-      <c r="Y189" s="5"/>
-      <c r="Z189" s="5"/>
-      <c r="AA189" s="5"/>
-      <c r="AB189" s="5"/>
-      <c r="AC189" s="5"/>
-    </row>
-    <row r="190" spans="8:29">
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
-      <c r="K190" s="5"/>
-      <c r="L190" s="5"/>
-      <c r="M190" s="5"/>
-      <c r="N190" s="5"/>
-      <c r="O190" s="5"/>
-      <c r="P190" s="5"/>
-      <c r="Q190" s="5"/>
-      <c r="R190" s="5"/>
-      <c r="S190" s="5"/>
-      <c r="T190" s="5"/>
-      <c r="U190" s="5"/>
-      <c r="V190" s="5"/>
-      <c r="W190" s="5"/>
-      <c r="X190" s="5"/>
-      <c r="Y190" s="5"/>
-      <c r="Z190" s="5"/>
-      <c r="AA190" s="5"/>
-      <c r="AB190" s="5"/>
-      <c r="AC190" s="5"/>
-    </row>
-    <row r="191" spans="8:29">
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
-      <c r="K191" s="5"/>
-      <c r="L191" s="5"/>
-      <c r="M191" s="5"/>
-      <c r="N191" s="5"/>
-      <c r="O191" s="5"/>
-      <c r="P191" s="5"/>
-      <c r="Q191" s="5"/>
-      <c r="R191" s="5"/>
-      <c r="S191" s="5"/>
-      <c r="T191" s="5"/>
-      <c r="U191" s="5"/>
-      <c r="V191" s="5"/>
-      <c r="W191" s="5"/>
-      <c r="X191" s="5"/>
-      <c r="Y191" s="5"/>
-      <c r="Z191" s="5"/>
-      <c r="AA191" s="5"/>
-      <c r="AB191" s="5"/>
-      <c r="AC191" s="5"/>
-    </row>
-    <row r="192" spans="8:29">
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="5"/>
-      <c r="L192" s="5"/>
-      <c r="M192" s="5"/>
-      <c r="N192" s="5"/>
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="S192" s="5"/>
-      <c r="T192" s="5"/>
-      <c r="U192" s="5"/>
-      <c r="V192" s="5"/>
-      <c r="W192" s="5"/>
-      <c r="X192" s="5"/>
-      <c r="Y192" s="5"/>
-      <c r="Z192" s="5"/>
-      <c r="AA192" s="5"/>
-      <c r="AB192" s="5"/>
-      <c r="AC192" s="5"/>
-    </row>
-    <row r="193" spans="8:29">
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
-      <c r="K193" s="5"/>
-      <c r="L193" s="5"/>
-      <c r="M193" s="5"/>
-      <c r="N193" s="5"/>
-      <c r="O193" s="5"/>
-      <c r="P193" s="5"/>
-      <c r="Q193" s="5"/>
-      <c r="R193" s="5"/>
-      <c r="S193" s="5"/>
-      <c r="T193" s="5"/>
-      <c r="U193" s="5"/>
-      <c r="V193" s="5"/>
-      <c r="W193" s="5"/>
-      <c r="X193" s="5"/>
-      <c r="Y193" s="5"/>
-      <c r="Z193" s="5"/>
-      <c r="AA193" s="5"/>
-      <c r="AB193" s="5"/>
-      <c r="AC193" s="5"/>
-    </row>
-    <row r="194" spans="8:29">
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="5"/>
-      <c r="L194" s="5"/>
-      <c r="M194" s="5"/>
-      <c r="N194" s="5"/>
-      <c r="O194" s="5"/>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
-      <c r="Y194" s="5"/>
-      <c r="Z194" s="5"/>
-      <c r="AA194" s="5"/>
-      <c r="AB194" s="5"/>
-      <c r="AC194" s="5"/>
-    </row>
-    <row r="195" spans="8:29">
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
-      <c r="K195" s="5"/>
-      <c r="L195" s="5"/>
-      <c r="M195" s="5"/>
-      <c r="N195" s="5"/>
-      <c r="O195" s="5"/>
-      <c r="P195" s="5"/>
-      <c r="Q195" s="5"/>
-      <c r="R195" s="5"/>
-      <c r="S195" s="5"/>
-      <c r="T195" s="5"/>
-      <c r="U195" s="5"/>
-      <c r="V195" s="5"/>
-      <c r="W195" s="5"/>
-      <c r="X195" s="5"/>
-      <c r="Y195" s="5"/>
-      <c r="Z195" s="5"/>
-      <c r="AA195" s="5"/>
-      <c r="AB195" s="5"/>
-      <c r="AC195" s="5"/>
-    </row>
-    <row r="196" spans="8:29">
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
-      <c r="K196" s="5"/>
-      <c r="L196" s="5"/>
-      <c r="M196" s="5"/>
-      <c r="N196" s="5"/>
-      <c r="O196" s="5"/>
-      <c r="P196" s="5"/>
-      <c r="Q196" s="5"/>
-      <c r="R196" s="5"/>
-      <c r="S196" s="5"/>
-      <c r="T196" s="5"/>
-      <c r="U196" s="5"/>
-      <c r="V196" s="5"/>
-      <c r="W196" s="5"/>
-      <c r="X196" s="5"/>
-      <c r="Y196" s="5"/>
-      <c r="Z196" s="5"/>
-      <c r="AA196" s="5"/>
-      <c r="AB196" s="5"/>
-      <c r="AC196" s="5"/>
-    </row>
-    <row r="197" spans="8:29">
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
-      <c r="K197" s="5"/>
-      <c r="L197" s="5"/>
-      <c r="M197" s="5"/>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5"/>
-      <c r="V197" s="5"/>
-      <c r="W197" s="5"/>
-      <c r="X197" s="5"/>
-      <c r="Y197" s="5"/>
-      <c r="Z197" s="5"/>
-      <c r="AA197" s="5"/>
-      <c r="AB197" s="5"/>
-      <c r="AC197" s="5"/>
-    </row>
-    <row r="198" spans="8:29">
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
-      <c r="K198" s="5"/>
-      <c r="L198" s="5"/>
-      <c r="M198" s="5"/>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5"/>
-      <c r="P198" s="5"/>
-      <c r="Q198" s="5"/>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5"/>
-      <c r="V198" s="5"/>
-      <c r="W198" s="5"/>
-      <c r="X198" s="5"/>
-      <c r="Y198" s="5"/>
-      <c r="Z198" s="5"/>
-      <c r="AA198" s="5"/>
-      <c r="AB198" s="5"/>
-      <c r="AC198" s="5"/>
-    </row>
-    <row r="199" spans="8:29">
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
-      <c r="K199" s="5"/>
-      <c r="L199" s="5"/>
-      <c r="M199" s="5"/>
-      <c r="N199" s="5"/>
-      <c r="O199" s="5"/>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5"/>
-      <c r="V199" s="5"/>
-      <c r="W199" s="5"/>
-      <c r="X199" s="5"/>
-      <c r="Y199" s="5"/>
-      <c r="Z199" s="5"/>
-      <c r="AA199" s="5"/>
-      <c r="AB199" s="5"/>
-      <c r="AC199" s="5"/>
-    </row>
-    <row r="200" spans="8:29">
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="5"/>
-      <c r="L200" s="5"/>
-      <c r="M200" s="5"/>
-      <c r="N200" s="5"/>
-      <c r="O200" s="5"/>
-      <c r="P200" s="5"/>
-      <c r="Q200" s="5"/>
-      <c r="R200" s="5"/>
-      <c r="S200" s="5"/>
-      <c r="T200" s="5"/>
-      <c r="U200" s="5"/>
-      <c r="V200" s="5"/>
-      <c r="W200" s="5"/>
-      <c r="X200" s="5"/>
-      <c r="Y200" s="5"/>
-      <c r="Z200" s="5"/>
-      <c r="AA200" s="5"/>
-      <c r="AB200" s="5"/>
-      <c r="AC200" s="5"/>
-    </row>
-    <row r="201" spans="8:29">
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
-      <c r="K201" s="5"/>
-      <c r="L201" s="5"/>
-      <c r="M201" s="5"/>
-      <c r="N201" s="5"/>
-      <c r="O201" s="5"/>
-      <c r="P201" s="5"/>
-      <c r="Q201" s="5"/>
-      <c r="R201" s="5"/>
-      <c r="S201" s="5"/>
-      <c r="T201" s="5"/>
-      <c r="U201" s="5"/>
-      <c r="V201" s="5"/>
-      <c r="W201" s="5"/>
-      <c r="X201" s="5"/>
-      <c r="Y201" s="5"/>
-      <c r="Z201" s="5"/>
-      <c r="AA201" s="5"/>
-      <c r="AB201" s="5"/>
-      <c r="AC201" s="5"/>
-    </row>
-    <row r="202" spans="8:29">
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
-      <c r="K202" s="5"/>
-      <c r="L202" s="5"/>
-      <c r="M202" s="5"/>
-      <c r="N202" s="5"/>
-      <c r="O202" s="5"/>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5"/>
-      <c r="V202" s="5"/>
-      <c r="W202" s="5"/>
-      <c r="X202" s="5"/>
-      <c r="Y202" s="5"/>
-      <c r="Z202" s="5"/>
-      <c r="AA202" s="5"/>
-      <c r="AB202" s="5"/>
-      <c r="AC202" s="5"/>
-    </row>
-    <row r="203" spans="8:29">
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5"/>
-      <c r="V203" s="5"/>
-      <c r="W203" s="5"/>
-      <c r="X203" s="5"/>
-      <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
-      <c r="AA203" s="5"/>
-      <c r="AB203" s="5"/>
-      <c r="AC203" s="5"/>
-    </row>
-    <row r="204" spans="8:29">
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-      <c r="K204" s="5"/>
-      <c r="L204" s="5"/>
-      <c r="M204" s="5"/>
-      <c r="N204" s="5"/>
-      <c r="O204" s="5"/>
-      <c r="P204" s="5"/>
-      <c r="Q204" s="5"/>
-      <c r="R204" s="5"/>
-      <c r="S204" s="5"/>
-      <c r="T204" s="5"/>
-      <c r="U204" s="5"/>
-      <c r="V204" s="5"/>
-      <c r="W204" s="5"/>
-      <c r="X204" s="5"/>
-      <c r="Y204" s="5"/>
-      <c r="Z204" s="5"/>
-      <c r="AA204" s="5"/>
-      <c r="AB204" s="5"/>
-      <c r="AC204" s="5"/>
-    </row>
-    <row r="205" spans="8:29">
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
-      <c r="K205" s="5"/>
-      <c r="L205" s="5"/>
-      <c r="M205" s="5"/>
-      <c r="N205" s="5"/>
-      <c r="O205" s="5"/>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5"/>
-      <c r="V205" s="5"/>
-      <c r="W205" s="5"/>
-      <c r="X205" s="5"/>
-      <c r="Y205" s="5"/>
-      <c r="Z205" s="5"/>
-      <c r="AA205" s="5"/>
-      <c r="AB205" s="5"/>
-      <c r="AC205" s="5"/>
-    </row>
-    <row r="206" spans="8:29">
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
-      <c r="K206" s="5"/>
-      <c r="L206" s="5"/>
-      <c r="M206" s="5"/>
-      <c r="N206" s="5"/>
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="5"/>
-      <c r="X206" s="5"/>
-      <c r="Y206" s="5"/>
-      <c r="Z206" s="5"/>
-      <c r="AA206" s="5"/>
-      <c r="AB206" s="5"/>
-      <c r="AC206" s="5"/>
-    </row>
-    <row r="207" spans="8:29">
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
-      <c r="K207" s="5"/>
-      <c r="L207" s="5"/>
-      <c r="M207" s="5"/>
-      <c r="N207" s="5"/>
-      <c r="O207" s="5"/>
-      <c r="P207" s="5"/>
-      <c r="Q207" s="5"/>
-      <c r="R207" s="5"/>
-      <c r="S207" s="5"/>
-      <c r="T207" s="5"/>
-      <c r="U207" s="5"/>
-      <c r="V207" s="5"/>
-      <c r="W207" s="5"/>
-      <c r="X207" s="5"/>
-      <c r="Y207" s="5"/>
-      <c r="Z207" s="5"/>
-      <c r="AA207" s="5"/>
-      <c r="AB207" s="5"/>
-      <c r="AC207" s="5"/>
-    </row>
-    <row r="208" spans="8:29">
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="5"/>
-      <c r="W208" s="5"/>
-      <c r="X208" s="5"/>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-      <c r="AA208" s="5"/>
-      <c r="AB208" s="5"/>
-      <c r="AC208" s="5"/>
-    </row>
-    <row r="209" spans="8:29">
-      <c r="H209" s="1"/>
-      <c r="I209" s="1"/>
-      <c r="J209" s="1"/>
-      <c r="K209" s="5"/>
-      <c r="L209" s="5"/>
-      <c r="M209" s="5"/>
-      <c r="N209" s="5"/>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
-      <c r="U209" s="5"/>
-      <c r="V209" s="5"/>
-      <c r="W209" s="5"/>
-      <c r="X209" s="5"/>
-      <c r="Y209" s="5"/>
-      <c r="Z209" s="5"/>
-      <c r="AA209" s="5"/>
-      <c r="AB209" s="5"/>
-      <c r="AC209" s="5"/>
-    </row>
-    <row r="210" spans="8:29">
-      <c r="H210" s="1"/>
-      <c r="I210" s="1"/>
-      <c r="J210" s="1"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5"/>
-      <c r="V210" s="5"/>
-      <c r="W210" s="5"/>
-      <c r="X210" s="5"/>
-      <c r="Y210" s="5"/>
-      <c r="Z210" s="5"/>
-      <c r="AA210" s="5"/>
-      <c r="AB210" s="5"/>
-      <c r="AC210" s="5"/>
-    </row>
-    <row r="211" spans="8:29">
-      <c r="H211" s="1"/>
-      <c r="I211" s="1"/>
-      <c r="J211" s="1"/>
-      <c r="K211" s="5"/>
-      <c r="L211" s="5"/>
-      <c r="M211" s="5"/>
-      <c r="N211" s="5"/>
-      <c r="O211" s="5"/>
-      <c r="P211" s="5"/>
-      <c r="Q211" s="5"/>
-      <c r="R211" s="5"/>
-      <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
-      <c r="U211" s="5"/>
-      <c r="V211" s="5"/>
-      <c r="W211" s="5"/>
-      <c r="X211" s="5"/>
-      <c r="Y211" s="5"/>
-      <c r="Z211" s="5"/>
-      <c r="AA211" s="5"/>
-      <c r="AB211" s="5"/>
-      <c r="AC211" s="5"/>
-    </row>
-    <row r="212" spans="8:29">
-      <c r="H212" s="1"/>
-      <c r="I212" s="1"/>
-      <c r="J212" s="1"/>
-      <c r="K212" s="5"/>
-      <c r="L212" s="5"/>
-      <c r="M212" s="5"/>
-      <c r="N212" s="5"/>
-      <c r="O212" s="5"/>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5"/>
-      <c r="V212" s="5"/>
-      <c r="W212" s="5"/>
-      <c r="X212" s="5"/>
-      <c r="Y212" s="5"/>
-      <c r="Z212" s="5"/>
-      <c r="AA212" s="5"/>
-      <c r="AB212" s="5"/>
-      <c r="AC212" s="5"/>
-    </row>
-    <row r="213" spans="8:29">
-      <c r="H213" s="1"/>
-      <c r="I213" s="1"/>
-      <c r="J213" s="1"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
-      <c r="W213" s="5"/>
-      <c r="X213" s="5"/>
-      <c r="Y213" s="5"/>
-      <c r="Z213" s="5"/>
-      <c r="AA213" s="5"/>
-      <c r="AB213" s="5"/>
-      <c r="AC213" s="5"/>
-    </row>
-    <row r="214" spans="8:29">
-      <c r="H214" s="1"/>
-      <c r="I214" s="1"/>
-      <c r="J214" s="1"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="5"/>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5"/>
-      <c r="V214" s="5"/>
-      <c r="W214" s="5"/>
-      <c r="X214" s="5"/>
-      <c r="Y214" s="5"/>
-      <c r="Z214" s="5"/>
-      <c r="AA214" s="5"/>
-      <c r="AB214" s="5"/>
-      <c r="AC214" s="5"/>
-    </row>
-    <row r="215" spans="8:29">
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="5"/>
-      <c r="L215" s="5"/>
-      <c r="M215" s="5"/>
-      <c r="N215" s="5"/>
-      <c r="O215" s="5"/>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5"/>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5"/>
-      <c r="V215" s="5"/>
-      <c r="W215" s="5"/>
-      <c r="X215" s="5"/>
-      <c r="Y215" s="5"/>
-      <c r="Z215" s="5"/>
-      <c r="AA215" s="5"/>
-      <c r="AB215" s="5"/>
-      <c r="AC215" s="5"/>
-    </row>
-    <row r="216" spans="8:29">
-      <c r="H216" s="1"/>
-      <c r="I216" s="1"/>
-      <c r="J216" s="1"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5"/>
-      <c r="P216" s="5"/>
-      <c r="Q216" s="5"/>
-      <c r="R216" s="5"/>
-      <c r="S216" s="5"/>
-      <c r="T216" s="5"/>
-      <c r="U216" s="5"/>
-      <c r="V216" s="5"/>
-      <c r="W216" s="5"/>
-      <c r="X216" s="5"/>
-      <c r="Y216" s="5"/>
-      <c r="Z216" s="5"/>
-      <c r="AA216" s="5"/>
-      <c r="AB216" s="5"/>
-      <c r="AC216" s="5"/>
-    </row>
-    <row r="217" spans="8:29">
-      <c r="H217" s="1"/>
-      <c r="I217" s="1"/>
-      <c r="J217" s="1"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5"/>
-      <c r="V217" s="5"/>
-      <c r="W217" s="5"/>
-      <c r="X217" s="5"/>
-      <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-      <c r="AA217" s="5"/>
-      <c r="AB217" s="5"/>
-      <c r="AC217" s="5"/>
-    </row>
-    <row r="218" spans="8:29">
-      <c r="H218" s="1"/>
-      <c r="I218" s="1"/>
-      <c r="J218" s="1"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
-      <c r="M218" s="5"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
-      <c r="W218" s="5"/>
-      <c r="X218" s="5"/>
-      <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
-      <c r="AA218" s="5"/>
-      <c r="AB218" s="5"/>
-      <c r="AC218" s="5"/>
-    </row>
-    <row r="219" spans="8:29">
-      <c r="H219" s="1"/>
-      <c r="I219" s="1"/>
-      <c r="J219" s="1"/>
-      <c r="K219" s="5"/>
-      <c r="L219" s="5"/>
-      <c r="M219" s="5"/>
-      <c r="N219" s="5"/>
-      <c r="O219" s="5"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
-      <c r="R219" s="5"/>
-      <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
-      <c r="U219" s="5"/>
-      <c r="V219" s="5"/>
-      <c r="W219" s="5"/>
-      <c r="X219" s="5"/>
-      <c r="Y219" s="5"/>
-      <c r="Z219" s="5"/>
-      <c r="AA219" s="5"/>
-      <c r="AB219" s="5"/>
-      <c r="AC219" s="5"/>
-    </row>
-    <row r="220" spans="8:29">
-      <c r="H220" s="1"/>
-      <c r="I220" s="1"/>
-      <c r="J220" s="1"/>
-      <c r="K220" s="5"/>
-      <c r="L220" s="5"/>
-      <c r="M220" s="5"/>
-      <c r="N220" s="5"/>
-      <c r="O220" s="5"/>
-      <c r="P220" s="5"/>
-      <c r="Q220" s="5"/>
-      <c r="R220" s="5"/>
-      <c r="S220" s="5"/>
-      <c r="T220" s="5"/>
-      <c r="U220" s="5"/>
-      <c r="V220" s="5"/>
-      <c r="W220" s="5"/>
-      <c r="X220" s="5"/>
-      <c r="Y220" s="5"/>
-      <c r="Z220" s="5"/>
-      <c r="AA220" s="5"/>
-      <c r="AB220" s="5"/>
-      <c r="AC220" s="5"/>
-    </row>
-    <row r="221" spans="8:29">
-      <c r="H221" s="1"/>
-      <c r="I221" s="1"/>
-      <c r="J221" s="1"/>
-      <c r="K221" s="5"/>
-      <c r="L221" s="5"/>
-      <c r="M221" s="5"/>
-      <c r="N221" s="5"/>
-      <c r="O221" s="5"/>
-      <c r="P221" s="5"/>
-      <c r="Q221" s="5"/>
-      <c r="R221" s="5"/>
-      <c r="S221" s="5"/>
-      <c r="T221" s="5"/>
-      <c r="U221" s="5"/>
-      <c r="V221" s="5"/>
-      <c r="W221" s="5"/>
-      <c r="X221" s="5"/>
-      <c r="Y221" s="5"/>
-      <c r="Z221" s="5"/>
-      <c r="AA221" s="5"/>
-      <c r="AB221" s="5"/>
-      <c r="AC221" s="5"/>
-    </row>
-    <row r="222" spans="8:29">
-      <c r="H222" s="1"/>
-      <c r="I222" s="1"/>
-      <c r="J222" s="1"/>
-      <c r="K222" s="5"/>
-      <c r="L222" s="5"/>
-      <c r="M222" s="5"/>
-      <c r="N222" s="5"/>
-      <c r="O222" s="5"/>
-      <c r="P222" s="5"/>
-      <c r="Q222" s="5"/>
-      <c r="R222" s="5"/>
-      <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
-      <c r="U222" s="5"/>
-      <c r="V222" s="5"/>
-      <c r="W222" s="5"/>
-      <c r="X222" s="5"/>
-      <c r="Y222" s="5"/>
-      <c r="Z222" s="5"/>
-      <c r="AA222" s="5"/>
-      <c r="AB222" s="5"/>
-      <c r="AC222" s="5"/>
-    </row>
-    <row r="223" spans="8:29">
-      <c r="H223" s="1"/>
-      <c r="I223" s="1"/>
-      <c r="J223" s="1"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
-      <c r="M223" s="5"/>
-      <c r="N223" s="5"/>
-      <c r="O223" s="5"/>
-      <c r="P223" s="5"/>
-      <c r="Q223" s="5"/>
-      <c r="R223" s="5"/>
-      <c r="S223" s="5"/>
-      <c r="T223" s="5"/>
-      <c r="U223" s="5"/>
-      <c r="V223" s="5"/>
-      <c r="W223" s="5"/>
-      <c r="X223" s="5"/>
-      <c r="Y223" s="5"/>
-      <c r="Z223" s="5"/>
-      <c r="AA223" s="5"/>
-      <c r="AB223" s="5"/>
-      <c r="AC223" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:E16"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="88" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>